--- a/dados_ate_2020.xlsx
+++ b/dados_ate_2020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>homicidios</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>homicidios_cada_1000000</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +483,9 @@
       <c r="E2" t="n">
         <v>487</v>
       </c>
+      <c r="F2" t="n">
+        <v>587.8547045275676</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -497,6 +505,9 @@
       <c r="E3" t="n">
         <v>1060</v>
       </c>
+      <c r="F3" t="n">
+        <v>322.4973219031358</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -516,6 +527,9 @@
       <c r="E4" t="n">
         <v>1887</v>
       </c>
+      <c r="F4" t="n">
+        <v>2391.962397894769</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -535,6 +549,9 @@
       <c r="E5" t="n">
         <v>567</v>
       </c>
+      <c r="F5" t="n">
+        <v>149.2862694546075</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -554,6 +571,9 @@
       <c r="E6" t="n">
         <v>2920</v>
       </c>
+      <c r="F6" t="n">
+        <v>199.0390910729945</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -573,6 +593,9 @@
       <c r="E7" t="n">
         <v>2077</v>
       </c>
+      <c r="F7" t="n">
+        <v>231.8220847535738</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +615,9 @@
       <c r="E8" t="n">
         <v>1313</v>
       </c>
+      <c r="F8" t="n">
+        <v>454.2900481069979</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -611,6 +637,9 @@
       <c r="E9" t="n">
         <v>123</v>
       </c>
+      <c r="F9" t="n">
+        <v>31.73485963387776</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -630,6 +659,9 @@
       <c r="E10" t="n">
         <v>1184</v>
       </c>
+      <c r="F10" t="n">
+        <v>176.0398992052631</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -649,6 +681,9 @@
       <c r="E11" t="n">
         <v>1108</v>
       </c>
+      <c r="F11" t="n">
+        <v>160.086481375715</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -668,6 +703,9 @@
       <c r="E12" t="n">
         <v>1283</v>
       </c>
+      <c r="F12" t="n">
+        <v>490.0633262656754</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -687,6 +725,9 @@
       <c r="E13" t="n">
         <v>338</v>
       </c>
+      <c r="F13" t="n">
+        <v>102.2608110553013</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -706,6 +747,9 @@
       <c r="E14" t="n">
         <v>432</v>
       </c>
+      <c r="F14" t="n">
+        <v>20.79936084334475</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -725,6 +769,9 @@
       <c r="E15" t="n">
         <v>1936</v>
       </c>
+      <c r="F15" t="n">
+        <v>492.261251386074</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -744,6 +791,9 @@
       <c r="E16" t="n">
         <v>704</v>
       </c>
+      <c r="F16" t="n">
+        <v>63.06652936557669</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -763,6 +813,9 @@
       <c r="E17" t="n">
         <v>1284</v>
       </c>
+      <c r="F17" t="n">
+        <v>154.820413143819</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -782,6 +835,9 @@
       <c r="E18" t="n">
         <v>737</v>
       </c>
+      <c r="F18" t="n">
+        <v>79.07331652158089</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -801,6 +857,9 @@
       <c r="E19" t="n">
         <v>1150</v>
       </c>
+      <c r="F19" t="n">
+        <v>354.2573103306361</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -820,6 +879,9 @@
       <c r="E20" t="n">
         <v>3872</v>
       </c>
+      <c r="F20" t="n">
+        <v>228.4739157962688</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -839,6 +901,9 @@
       <c r="E21" t="n">
         <v>1088</v>
       </c>
+      <c r="F21" t="n">
+        <v>317.8644185549849</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -858,6 +923,9 @@
       <c r="E22" t="n">
         <v>387</v>
       </c>
+      <c r="F22" t="n">
+        <v>34.51896924395518</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -877,6 +945,9 @@
       <c r="E23" t="n">
         <v>111</v>
       </c>
+      <c r="F23" t="n">
+        <v>65.00031621775457</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -896,6 +967,9 @@
       <c r="E24" t="n">
         <v>1696</v>
       </c>
+      <c r="F24" t="n">
+        <v>3624.558951442451</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -915,6 +989,9 @@
       <c r="E25" t="n">
         <v>178</v>
       </c>
+      <c r="F25" t="n">
+        <v>25.86265390640131</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -934,6 +1011,9 @@
       <c r="E26" t="n">
         <v>898</v>
       </c>
+      <c r="F26" t="n">
+        <v>20.0651491708658</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -953,6 +1033,9 @@
       <c r="E27" t="n">
         <v>2891</v>
       </c>
+      <c r="F27" t="n">
+        <v>1292.481210738816</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -972,6 +1055,9 @@
       <c r="E28" t="n">
         <v>186</v>
       </c>
+      <c r="F28" t="n">
+        <v>123.3730183208932</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -991,6 +1077,9 @@
       <c r="E29" t="n">
         <v>672</v>
       </c>
+      <c r="F29" t="n">
+        <v>799.5326541271709</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1010,6 +1099,9 @@
       <c r="E30" t="n">
         <v>1327</v>
       </c>
+      <c r="F30" t="n">
+        <v>402.0315469034785</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1029,6 +1121,9 @@
       <c r="E31" t="n">
         <v>2138</v>
       </c>
+      <c r="F31" t="n">
+        <v>2654.766162037589</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1048,6 +1143,9 @@
       <c r="E32" t="n">
         <v>619</v>
       </c>
+      <c r="F32" t="n">
+        <v>160.3947316938176</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1067,6 +1165,9 @@
       <c r="E33" t="n">
         <v>3029</v>
       </c>
+      <c r="F33" t="n">
+        <v>205.6261039929073</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1086,6 +1187,9 @@
       <c r="E34" t="n">
         <v>4040</v>
       </c>
+      <c r="F34" t="n">
+        <v>448.1243886817977</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1105,6 +1209,9 @@
       <c r="E35" t="n">
         <v>1107</v>
       </c>
+      <c r="F35" t="n">
+        <v>377.6794514743316</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1124,6 +1231,9 @@
       <c r="E36" t="n">
         <v>186</v>
       </c>
+      <c r="F36" t="n">
+        <v>47.42769762241892</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1143,6 +1253,9 @@
       <c r="E37" t="n">
         <v>1125</v>
       </c>
+      <c r="F37" t="n">
+        <v>164.8564935214329</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1162,6 +1275,9 @@
       <c r="E38" t="n">
         <v>927</v>
       </c>
+      <c r="F38" t="n">
+        <v>133.1883156347565</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1181,6 +1297,9 @@
       <c r="E39" t="n">
         <v>1168</v>
       </c>
+      <c r="F39" t="n">
+        <v>441.0258230436748</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1200,6 +1319,9 @@
       <c r="E40" t="n">
         <v>259</v>
       </c>
+      <c r="F40" t="n">
+        <v>77.39637402470109</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1219,6 +1341,9 @@
       <c r="E41" t="n">
         <v>317</v>
       </c>
+      <c r="F41" t="n">
+        <v>15.1688060824137</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1238,6 +1363,9 @@
       <c r="E42" t="n">
         <v>1963</v>
       </c>
+      <c r="F42" t="n">
+        <v>496.5285998449961</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1257,6 +1385,9 @@
       <c r="E43" t="n">
         <v>594</v>
       </c>
+      <c r="F43" t="n">
+        <v>52.80686723971304</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1276,6 +1407,9 @@
       <c r="E44" t="n">
         <v>1592</v>
       </c>
+      <c r="F44" t="n">
+        <v>189.9427236784365</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1295,6 +1429,9 @@
       <c r="E45" t="n">
         <v>649</v>
       </c>
+      <c r="F45" t="n">
+        <v>69.20782737328463</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1314,6 +1451,9 @@
       <c r="E46" t="n">
         <v>919</v>
       </c>
+      <c r="F46" t="n">
+        <v>282.3673134793368</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1333,6 +1473,9 @@
       <c r="E47" t="n">
         <v>4243</v>
       </c>
+      <c r="F47" t="n">
+        <v>248.8424544581067</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1352,6 +1495,9 @@
       <c r="E48" t="n">
         <v>1069</v>
       </c>
+      <c r="F48" t="n">
+        <v>309.7949991726242</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1371,6 +1517,9 @@
       <c r="E49" t="n">
         <v>318</v>
       </c>
+      <c r="F49" t="n">
+        <v>28.23776374670726</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1390,6 +1539,9 @@
       <c r="E50" t="n">
         <v>266</v>
       </c>
+      <c r="F50" t="n">
+        <v>154.0022046631404</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1409,6 +1561,9 @@
       <c r="E51" t="n">
         <v>1405</v>
       </c>
+      <c r="F51" t="n">
+        <v>2886.509829541836</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1428,6 +1583,9 @@
       <c r="E52" t="n">
         <v>356</v>
       </c>
+      <c r="F52" t="n">
+        <v>51.05311388142771</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1447,6 +1605,9 @@
       <c r="E53" t="n">
         <v>727</v>
       </c>
+      <c r="F53" t="n">
+        <v>16.10423065670904</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1466,6 +1627,9 @@
       <c r="E54" t="n">
         <v>2687</v>
       </c>
+      <c r="F54" t="n">
+        <v>1190.562697060945</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1485,6 +1649,9 @@
       <c r="E55" t="n">
         <v>159</v>
       </c>
+      <c r="F55" t="n">
+        <v>104.3031271914317</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1504,6 +1671,9 @@
       <c r="E56" t="n">
         <v>454</v>
       </c>
+      <c r="F56" t="n">
+        <v>532.224805192826</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1523,6 +1693,9 @@
       <c r="E57" t="n">
         <v>911</v>
       </c>
+      <c r="F57" t="n">
+        <v>274.7647157467025</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1542,6 +1715,9 @@
       <c r="E58" t="n">
         <v>1992</v>
       </c>
+      <c r="F58" t="n">
+        <v>2424.699803419167</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1561,6 +1737,9 @@
       <c r="E59" t="n">
         <v>668</v>
       </c>
+      <c r="F59" t="n">
+        <v>170.3426334971139</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1580,6 +1759,9 @@
       <c r="E60" t="n">
         <v>2473</v>
       </c>
+      <c r="F60" t="n">
+        <v>167.1700583215978</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1599,6 +1781,9 @@
       <c r="E61" t="n">
         <v>3061</v>
       </c>
+      <c r="F61" t="n">
+        <v>337.3753717080826</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1618,6 +1803,9 @@
       <c r="E62" t="n">
         <v>1002</v>
       </c>
+      <c r="F62" t="n">
+        <v>337.1229950518285</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1637,6 +1825,9 @@
       <c r="E63" t="n">
         <v>166</v>
       </c>
+      <c r="F63" t="n">
+        <v>41.82694027868837</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1656,6 +1847,9 @@
       <c r="E64" t="n">
         <v>886</v>
       </c>
+      <c r="F64" t="n">
+        <v>127.9743935660368</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1675,6 +1869,9 @@
       <c r="E65" t="n">
         <v>592</v>
       </c>
+      <c r="F65" t="n">
+        <v>84.56265821573362</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1694,6 +1891,9 @@
       <c r="E66" t="n">
         <v>901</v>
       </c>
+      <c r="F66" t="n">
+        <v>336.3054624069468</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1713,6 +1913,9 @@
       <c r="E67" t="n">
         <v>308</v>
       </c>
+      <c r="F67" t="n">
+        <v>90.88443837105578</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1732,6 +1935,9 @@
       <c r="E68" t="n">
         <v>273</v>
       </c>
+      <c r="F68" t="n">
+        <v>12.98139086711126</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1751,6 +1957,9 @@
       <c r="E69" t="n">
         <v>2081</v>
       </c>
+      <c r="F69" t="n">
+        <v>523.4786856635011</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1770,6 +1979,9 @@
       <c r="E70" t="n">
         <v>515</v>
       </c>
+      <c r="F70" t="n">
+        <v>45.43230247291992</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1789,6 +2001,9 @@
       <c r="E71" t="n">
         <v>1226</v>
       </c>
+      <c r="F71" t="n">
+        <v>144.711497092373</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1808,6 +2023,9 @@
       <c r="E72" t="n">
         <v>672</v>
       </c>
+      <c r="F72" t="n">
+        <v>71.19373351062551</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1827,6 +2045,9 @@
       <c r="E73" t="n">
         <v>797</v>
       </c>
+      <c r="F73" t="n">
+        <v>244.1973261465172</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1846,6 +2067,9 @@
       <c r="E74" t="n">
         <v>3949</v>
       </c>
+      <c r="F74" t="n">
+        <v>230.1357824427203</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1865,6 +2089,9 @@
       <c r="E75" t="n">
         <v>831</v>
       </c>
+      <c r="F75" t="n">
+        <v>238.8610553002147</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1884,6 +2111,9 @@
       <c r="E76" t="n">
         <v>318</v>
       </c>
+      <c r="F76" t="n">
+        <v>28.11429965776587</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1903,6 +2133,9 @@
       <c r="E77" t="n">
         <v>343</v>
       </c>
+      <c r="F77" t="n">
+        <v>196.3192712262342</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1922,6 +2155,9 @@
       <c r="E78" t="n">
         <v>1167</v>
       </c>
+      <c r="F78" t="n">
+        <v>2272.789240183381</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1941,6 +2177,9 @@
       <c r="E79" t="n">
         <v>244</v>
       </c>
+      <c r="F79" t="n">
+        <v>34.54229477488334</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1960,6 +2199,9 @@
       <c r="E80" t="n">
         <v>687</v>
       </c>
+      <c r="F80" t="n">
+        <v>15.08807316806249</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1979,6 +2221,9 @@
       <c r="E81" t="n">
         <v>2436</v>
       </c>
+      <c r="F81" t="n">
+        <v>1069.379742189928</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1998,6 +2243,9 @@
       <c r="E82" t="n">
         <v>145</v>
       </c>
+      <c r="F82" t="n">
+        <v>94.02457607885096</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2017,6 +2265,9 @@
       <c r="E83" t="n">
         <v>362</v>
       </c>
+      <c r="F83" t="n">
+        <v>418.2930408517464</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2036,6 +2287,9 @@
       <c r="E84" t="n">
         <v>622</v>
       </c>
+      <c r="F84" t="n">
+        <v>186.7823556137857</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2055,6 +2309,9 @@
       <c r="E85" t="n">
         <v>1947</v>
       </c>
+      <c r="F85" t="n">
+        <v>2324.567949138883</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2074,6 +2331,9 @@
       <c r="E86" t="n">
         <v>627</v>
       </c>
+      <c r="F86" t="n">
+        <v>157.4188332678468</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2093,6 +2353,9 @@
       <c r="E87" t="n">
         <v>2337</v>
       </c>
+      <c r="F87" t="n">
+        <v>157.3365275498481</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2112,6 +2375,9 @@
       <c r="E88" t="n">
         <v>1403</v>
       </c>
+      <c r="F88" t="n">
+        <v>153.6796920885519</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2131,6 +2397,9 @@
       <c r="E89" t="n">
         <v>916</v>
       </c>
+      <c r="F89" t="n">
+        <v>304.044387825213</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2150,6 +2419,9 @@
       <c r="E90" t="n">
         <v>156</v>
       </c>
+      <c r="F90" t="n">
+        <v>38.85501252077871</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2169,6 +2441,9 @@
       <c r="E91" t="n">
         <v>824</v>
       </c>
+      <c r="F91" t="n">
+        <v>117.3704907795794</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2188,6 +2463,9 @@
       <c r="E92" t="n">
         <v>525</v>
       </c>
+      <c r="F92" t="n">
+        <v>74.56740254040488</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2207,6 +2485,9 @@
       <c r="E93" t="n">
         <v>767</v>
       </c>
+      <c r="F93" t="n">
+        <v>283.095402781643</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2226,6 +2507,9 @@
       <c r="E94" t="n">
         <v>195</v>
       </c>
+      <c r="F94" t="n">
+        <v>56.83974514807191</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2245,6 +2529,9 @@
       <c r="E95" t="n">
         <v>215</v>
       </c>
+      <c r="F95" t="n">
+        <v>10.16156798571066</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2264,6 +2551,9 @@
       <c r="E96" t="n">
         <v>908</v>
       </c>
+      <c r="F96" t="n">
+        <v>227.182654854503</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2283,6 +2573,9 @@
       <c r="E97" t="n">
         <v>391</v>
       </c>
+      <c r="F97" t="n">
+        <v>34.23648479738087</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2302,6 +2595,9 @@
       <c r="E98" t="n">
         <v>972</v>
       </c>
+      <c r="F98" t="n">
+        <v>113.5368383821795</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2321,6 +2617,9 @@
       <c r="E99" t="n">
         <v>501</v>
       </c>
+      <c r="F99" t="n">
+        <v>52.74012309607892</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2340,6 +2639,9 @@
       <c r="E100" t="n">
         <v>671</v>
       </c>
+      <c r="F100" t="n">
+        <v>205.0453376326645</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2359,6 +2661,9 @@
       <c r="E101" t="n">
         <v>3807</v>
       </c>
+      <c r="F101" t="n">
+        <v>220.5114452217018</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2378,6 +2683,9 @@
       <c r="E102" t="n">
         <v>476</v>
       </c>
+      <c r="F102" t="n">
+        <v>135.7342323730136</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2397,6 +2705,9 @@
       <c r="E103" t="n">
         <v>238</v>
       </c>
+      <c r="F103" t="n">
+        <v>20.95320164040679</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2416,6 +2727,9 @@
       <c r="E104" t="n">
         <v>285</v>
       </c>
+      <c r="F104" t="n">
+        <v>161.3187154049185</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2435,6 +2749,9 @@
       <c r="E105" t="n">
         <v>713</v>
       </c>
+      <c r="F105" t="n">
+        <v>1321.003963011889</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2454,6 +2771,9 @@
       <c r="E106" t="n">
         <v>140</v>
       </c>
+      <c r="F106" t="n">
+        <v>19.57212811523621</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2473,6 +2793,9 @@
       <c r="E107" t="n">
         <v>418</v>
       </c>
+      <c r="F107" t="n">
+        <v>9.104240129952791</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2492,6 +2815,9 @@
       <c r="E108" t="n">
         <v>2328</v>
       </c>
+      <c r="F108" t="n">
+        <v>1012.812865855807</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2511,6 +2837,9 @@
       <c r="E109" t="n">
         <v>148</v>
       </c>
+      <c r="F109" t="n">
+        <v>94.89265909106939</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2530,6 +2859,9 @@
       <c r="E110" t="n">
         <v>383</v>
       </c>
+      <c r="F110" t="n">
+        <v>436.3737455679012</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2549,6 +2881,9 @@
       <c r="E111" t="n">
         <v>741</v>
       </c>
+      <c r="F111" t="n">
+        <v>221.5747415559391</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2568,6 +2903,9 @@
       <c r="E112" t="n">
         <v>1551</v>
       </c>
+      <c r="F112" t="n">
+        <v>1817.410582461929</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2587,6 +2925,9 @@
       <c r="E113" t="n">
         <v>481</v>
       </c>
+      <c r="F113" t="n">
+        <v>118.9515251514468</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2606,6 +2947,9 @@
       <c r="E114" t="n">
         <v>3089</v>
       </c>
+      <c r="F114" t="n">
+        <v>207.1620667947106</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2625,6 +2969,9 @@
       <c r="E115" t="n">
         <v>2588</v>
       </c>
+      <c r="F115" t="n">
+        <v>281.7830114024127</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2644,6 +2991,9 @@
       <c r="E116" t="n">
         <v>845</v>
       </c>
+      <c r="F116" t="n">
+        <v>276.818105279986</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2663,6 +3013,9 @@
       <c r="E117" t="n">
         <v>154</v>
       </c>
+      <c r="F117" t="n">
+        <v>37.92862424013449</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2682,6 +3035,9 @@
       <c r="E118" t="n">
         <v>755</v>
       </c>
+      <c r="F118" t="n">
+        <v>106.102838524971</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2701,6 +3057,9 @@
       <c r="E119" t="n">
         <v>560</v>
       </c>
+      <c r="F119" t="n">
+        <v>79.09841368131362</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2720,6 +3079,9 @@
       <c r="E120" t="n">
         <v>712</v>
       </c>
+      <c r="F120" t="n">
+        <v>259.9468934338218</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2739,6 +3101,9 @@
       <c r="E121" t="n">
         <v>369</v>
       </c>
+      <c r="F121" t="n">
+        <v>106.2855671400743</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2758,6 +3123,9 @@
       <c r="E122" t="n">
         <v>216</v>
       </c>
+      <c r="F122" t="n">
+        <v>10.14944636884526</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2777,6 +3145,9 @@
       <c r="E123" t="n">
         <v>759</v>
       </c>
+      <c r="F123" t="n">
+        <v>188.9110460445163</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2796,6 +3167,9 @@
       <c r="E124" t="n">
         <v>484</v>
       </c>
+      <c r="F124" t="n">
+        <v>42.07434153655495</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2815,6 +3189,9 @@
       <c r="E125" t="n">
         <v>1118</v>
       </c>
+      <c r="F125" t="n">
+        <v>129.2682515093051</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2834,6 +3211,9 @@
       <c r="E126" t="n">
         <v>597</v>
       </c>
+      <c r="F126" t="n">
+        <v>62.45706077072013</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2853,6 +3233,9 @@
       <c r="E127" t="n">
         <v>689</v>
       </c>
+      <c r="F127" t="n">
+        <v>210.0163471359897</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2872,6 +3255,9 @@
       <c r="E128" t="n">
         <v>2825</v>
       </c>
+      <c r="F128" t="n">
+        <v>162.6774883378956</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2891,6 +3277,9 @@
       <c r="E129" t="n">
         <v>533</v>
       </c>
+      <c r="F129" t="n">
+        <v>150.8135585067477</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2910,6 +3299,9 @@
       <c r="E130" t="n">
         <v>312</v>
       </c>
+      <c r="F130" t="n">
+        <v>27.35780670359211</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2929,6 +3321,9 @@
       <c r="E131" t="n">
         <v>262</v>
       </c>
+      <c r="F131" t="n">
+        <v>146.7112325367436</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2948,6 +3343,9 @@
       <c r="E132" t="n">
         <v>607</v>
       </c>
+      <c r="F132" t="n">
+        <v>1078.880949841812</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2967,6 +3365,9 @@
       <c r="E133" t="n">
         <v>163</v>
       </c>
+      <c r="F133" t="n">
+        <v>22.51171645070611</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2986,6 +3387,9 @@
       <c r="E134" t="n">
         <v>492</v>
       </c>
+      <c r="F134" t="n">
+        <v>10.63028424515821</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3005,6 +3409,9 @@
       <c r="E135" t="n">
         <v>2322</v>
       </c>
+      <c r="F135" t="n">
+        <v>1001.432712951087</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3023,6 +3430,9 @@
       </c>
       <c r="E136" t="n">
         <v>204</v>
+      </c>
+      <c r="F136" t="n">
+        <v>129.3667623811601</v>
       </c>
     </row>
   </sheetData>
